--- a/CompoundEffect/Index.xlsx
+++ b/CompoundEffect/Index.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General KnowLedge" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="DB" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,16 +16,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Multiprogramming, Multiprocessing, Multitasking, and Multithreading</t>
   </si>
+  <si>
+    <t>Types of Join in SQL Server</t>
+  </si>
+  <si>
+    <t>SQL | DDL, DML, DCL and TCL Commands</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>Page Numbers</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirty Reads </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,13 +57,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -60,17 +92,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -149,6 +190,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -183,6 +225,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -358,20 +401,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="62.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45.75" customHeight="1"/>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -383,24 +426,72 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CompoundEffect/Index.xlsx
+++ b/CompoundEffect/Index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Multiprogramming, Multiprocessing, Multitasking, and Multithreading</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dirty Reads </t>
+  </si>
+  <si>
+    <t>Indexex ( Clustered &amp; Non Clustered)</t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,6 +482,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
